--- a/applications.xlsx
+++ b/applications.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -496,6 +496,9 @@
       <c r="AE1" t="str">
         <v>status</v>
       </c>
+      <c r="AF1" t="str">
+        <v>postal_code</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -508,13 +511,13 @@
         <v>2025-05-12T20:30:39.693185+00:00</v>
       </c>
       <c r="D2" t="str">
-        <v>2025-05-17T13:51:58.357+00:00</v>
+        <v>2025-05-19T06:10:47.297+00:00</v>
       </c>
       <c r="E2" t="str">
-        <v>Sofware Engineer</v>
+        <v>Software Engineer</v>
       </c>
       <c r="F2" t="str">
-        <v>Lagos</v>
+        <v>United State</v>
       </c>
       <c r="G2" t="str">
         <v>Abraham</v>
@@ -556,10 +559,10 @@
         <v>Lagos</v>
       </c>
       <c r="T2" t="str">
-        <v>Lagos</v>
+        <v>United State</v>
       </c>
       <c r="U2" t="str">
-        <v>Lagos</v>
+        <v>Minna</v>
       </c>
       <c r="V2" t="str">
         <v>15days</v>
@@ -587,11 +590,14 @@
       </c>
       <c r="AE2" t="str">
         <v>draft</v>
+      </c>
+      <c r="AF2" t="str">
+        <v>920101</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AF2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/applications.xlsx
+++ b/applications.xlsx
@@ -606,7 +606,7 @@
         <v>2025-05-12T20:30:39.693185+00:00</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-05-19T06:10:47.297+00:00</v>
+        <v>2025-05-21T05:27:16.484+00:00</v>
       </c>
       <c r="E3" t="str">
         <v>Software Engineer</v>
@@ -666,7 +666,7 @@
         <v>hello</v>
       </c>
       <c r="X3" t="str">
-        <v>Hello world</v>
+        <v>Hello world, trust you are all good right?</v>
       </c>
       <c r="Y3" t="str">
         <v/>
